--- a/va_facility_data_2025-02-20/Batavia VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Batavia%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Batavia VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Batavia%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R32753199183e43adb87383052dcc9671"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5621f83e261f484c8f321c3f48d189d7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re44be358d34c4ebcb73d3044243c6b71"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5d102273b17a427abebd1fdb8b2acf75"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R2c559187d55e43e28ea6df86961c635f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R34ae8f575df444a3b2c5c04f28de5a0a"/>
   </x:sheets>
 </x:workbook>
 </file>
